--- a/_files/requirements/master_data/master-template_type.xlsx
+++ b/_files/requirements/master_data/master-template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB611A36-BD84-4E79-9DC6-240FD7378C4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F419BDD4-C2A8-45B3-8856-E2FFB1DC2364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="204">
   <si>
     <t>code</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>فقدت رسالة إعلام UIN</t>
+  </si>
+  <si>
+    <t>Masked UIN card template</t>
+  </si>
+  <si>
+    <t>قالب بطاقة UIN Masked</t>
+  </si>
+  <si>
+    <t>Modèle de carte Masked UIN</t>
+  </si>
+  <si>
+    <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1115,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1460,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:B157"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4613,6 +4626,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
